--- a/public/template_import/TEMPLATE_IMPORT_LOG_FINGER__TEMPS_NEW.xlsx
+++ b/public/template_import/TEMPLATE_IMPORT_LOG_FINGER__TEMPS_NEW.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">KD_PGW</t>
   </si>
@@ -44,25 +44,15 @@
   </si>
   <si>
     <t xml:space="preserve">FUNCTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0323230002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0323230003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -143,7 +133,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -174,26 +164,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -276,10 +246,10 @@
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.78125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="27.7890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.19"/>
@@ -317,57 +287,19 @@
       </c>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="9" t="n">
-        <v>45231.3263888889</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="9" t="n">
-        <v>45231.3263888889</v>
-      </c>
-      <c r="E2" s="9" t="n">
-        <v>45231.3263888889</v>
-      </c>
-      <c r="F2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>111</v>
-      </c>
-      <c r="H2" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="9" t="n">
-        <v>45231.3263888889</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="9" t="n">
-        <v>45231.3263888889</v>
-      </c>
-      <c r="E3" s="9" t="n">
-        <v>45231.3263888889</v>
-      </c>
-      <c r="F3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6" t="n">
-        <v>222</v>
-      </c>
-      <c r="H3" s="12" t="n">
-        <v>0</v>
-      </c>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0"/>
